--- a/ASP.NET CORE/QC_VOC/VOC/VOC/wwwroot/templates/GLOBAL_VOC_MasterLIST_Template.xlsx
+++ b/ASP.NET CORE/QC_VOC/VOC/VOC/wwwroot/templates/GLOBAL_VOC_MasterLIST_Template.xlsx
@@ -15,7 +15,7 @@
     <sheet name="VOC Master LIST" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'VOC Master LIST'!$A$4:$AC$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'VOC Master LIST'!$A$4:$AG$6</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -315,58 +315,46 @@
 (Close, Open)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">PBA FAE Result </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-(If applicable, fill it out)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PBA FAE 결과</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-(해당사항 없으면 입력 X)</t>
-    </r>
+    <t>Received date (YY-MM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접수 일자 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPL Received date (YY-MM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPL 접수 일자 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customer Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객사 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prodution date
+(YYYY-MM-DD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prodution date
+(YY-MM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부품 생산일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부품 생산일자 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -412,15 +400,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="3"/>
@@ -478,8 +457,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -504,6 +491,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -574,7 +567,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -603,34 +596,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -928,13 +921,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="B2:AC6"/>
+  <dimension ref="B2:AG6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="13" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -944,46 +934,45 @@
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="26.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="21" customWidth="1"/>
-    <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="13" width="23.28515625" customWidth="1"/>
-    <col min="14" max="14" width="25.5703125" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" customWidth="1"/>
-    <col min="16" max="16" width="16" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" customWidth="1"/>
-    <col min="18" max="18" width="18.42578125" customWidth="1"/>
-    <col min="19" max="19" width="28.28515625" customWidth="1"/>
-    <col min="20" max="20" width="18.85546875" customWidth="1"/>
-    <col min="21" max="21" width="23.85546875" customWidth="1"/>
-    <col min="22" max="22" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.42578125" customWidth="1"/>
-    <col min="24" max="24" width="20.5703125" customWidth="1"/>
-    <col min="25" max="25" width="16.42578125" customWidth="1"/>
-    <col min="26" max="26" width="15.42578125" customWidth="1"/>
-    <col min="27" max="27" width="13.7109375" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" customWidth="1"/>
+    <col min="6" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="9" width="20.42578125" customWidth="1"/>
+    <col min="10" max="11" width="21.7109375" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="21" customWidth="1"/>
+    <col min="15" max="15" width="24" customWidth="1"/>
+    <col min="16" max="16" width="23.28515625" customWidth="1"/>
+    <col min="17" max="17" width="25.5703125" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" customWidth="1"/>
+    <col min="20" max="22" width="18.42578125" customWidth="1"/>
+    <col min="23" max="23" width="28.28515625" customWidth="1"/>
+    <col min="24" max="24" width="18.85546875" customWidth="1"/>
+    <col min="25" max="25" width="23.85546875" customWidth="1"/>
+    <col min="26" max="26" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.42578125" customWidth="1"/>
+    <col min="28" max="28" width="20.5703125" customWidth="1"/>
     <col min="29" max="29" width="16.42578125" customWidth="1"/>
-    <col min="30" max="30" width="10.5703125" customWidth="1"/>
+    <col min="30" max="30" width="15.42578125" customWidth="1"/>
+    <col min="31" max="31" width="13.7109375" customWidth="1"/>
+    <col min="32" max="32" width="12.5703125" customWidth="1"/>
+    <col min="33" max="33" width="16.42578125" customWidth="1"/>
+    <col min="34" max="34" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:29" ht="21">
+    <row r="2" spans="2:33" ht="21">
       <c r="B2" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="2:29" s="5" customFormat="1" ht="45.75" customHeight="1">
+    <row r="3" spans="2:33" s="5" customFormat="1" ht="45.75" customHeight="1">
       <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -992,77 +981,89 @@
       <c r="F3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="K3" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="P3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="U3" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="V3" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X3" s="15" t="s">
+      <c r="AB3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="AC3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AD3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AF3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AG3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:29" s="5" customFormat="1" ht="51">
+    <row r="4" spans="2:33" s="5" customFormat="1" ht="51">
       <c r="B4" s="19"/>
       <c r="C4" s="6" t="s">
         <v>16</v>
@@ -1076,175 +1077,204 @@
       <c r="F4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="K4" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="O4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="Q4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="P4" s="17" t="s">
+      <c r="R4" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="S4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="T4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="U4" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="V4" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="W4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="X4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="Y4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="Z4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="AA4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="X4" s="17" t="s">
+      <c r="AB4" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="Y4" s="17" t="s">
+      <c r="AC4" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Z4" s="17" t="s">
+      <c r="AD4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AA4" s="6" t="s">
+      <c r="AE4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AB4" s="6" t="s">
+      <c r="AF4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AC4" s="6" t="s">
+      <c r="AG4" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:29" s="3" customFormat="1" ht="27" customHeight="1">
+    <row r="5" spans="2:33" s="3" customFormat="1" ht="27" customHeight="1">
       <c r="B5" s="2"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="str">
+        <f>IF(F5="","",MID(YEAR(F5),3,2))&amp;IF(F5="","",IF(MONTH(F5)&lt;10,"0"&amp;MONTH(F5),MONTH(F5)))</f>
+        <v/>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8" t="str">
+        <f>IF(H5="","",MID(YEAR(H5),3,2))&amp;IF(H5="","",IF(MONTH(H5)&lt;10,"0"&amp;MONTH(H5),MONTH(H5)))</f>
+        <v/>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="2"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="2"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7" t="str">
+        <f>IF(U5="","",MID(YEAR(U5),3,2))&amp;IF(U5="","",IF(MONTH(U5)&lt;10,"0"&amp;MONTH(U5),MONTH(U5)))</f>
+        <v/>
+      </c>
+      <c r="W5" s="9"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="2"/>
     </row>
-    <row r="6" spans="2:29" s="3" customFormat="1" ht="27" customHeight="1">
+    <row r="6" spans="2:33" s="3" customFormat="1" ht="27" customHeight="1">
       <c r="B6" s="2"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="str">
+        <f>IF(F6="","",MID(YEAR(F6),3,2))&amp;IF(F6="","",IF(MONTH(F6)&lt;10,"0"&amp;MONTH(F6),MONTH(F6)))</f>
+        <v/>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8" t="str">
+        <f>IF(H6="","",MID(YEAR(H6),3,2))&amp;IF(H6="","",IF(MONTH(H6)&lt;10,"0"&amp;MONTH(H6),MONTH(H6)))</f>
+        <v/>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
       <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="M6" s="14"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="2"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7" t="str">
+        <f>IF(U6="","",MID(YEAR(U6),3,2))&amp;IF(U6="","",IF(MONTH(U6)&lt;10,"0"&amp;MONTH(U6),MONTH(U6)))</f>
+        <v/>
+      </c>
+      <c r="W6" s="9"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:AC6"/>
+  <autoFilter ref="A4:AG6"/>
   <mergeCells count="1">
     <mergeCell ref="B3:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V5:V6">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z5:Z6">
       <formula1>"Man,Machine,Material,Method,Measurement,Environment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D6 C5:C6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:D6">
       <formula1>"HQ,WTC,WHC"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA5:AA6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE5:AE6">
       <formula1>"Close,Open"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E6">
       <formula1>"Sales,Quality"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P5:P6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5:R6">
       <formula1>"SAW,Module"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q5:Q6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S5:S6">
       <formula1>"Sample,Mass product"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W5:W6 AA5:AA6">
+      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>S5:S6 W5:W6</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>